--- a/Excel RPG/Game/Display.xlsx
+++ b/Excel RPG/Game/Display.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="6330" windowWidth="9915" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="9225" yWindow="6345" windowWidth="9915" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OTHERBOX" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="OB1V2H">OTHERBOX!$B$8</definedName>
     <definedName name="UB1V1H">USERBOX!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -169,6 +169,12 @@
       <definedName name="D1CHARNAME" refersTo="='Sheet1'!$C$14"/>
       <definedName name="D1PROMPT" refersTo="='Sheet1'!$C$16"/>
       <definedName name="D1TEXT" refersTo="='Sheet1'!$C$15"/>
+      <definedName name="D2CHARNAME" refersTo="='Sheet1'!$C$21"/>
+      <definedName name="D2PROMPT" refersTo="='Sheet1'!$C$23"/>
+      <definedName name="D2TEXT" refersTo="='Sheet1'!$C$22"/>
+      <definedName name="D3CHARNAME" refersTo="='Sheet1'!$C$28"/>
+      <definedName name="D3PROMPT" refersTo="='Sheet1'!$C$30"/>
+      <definedName name="D3TEXT" refersTo="='Sheet1'!$C$29"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -199,6 +205,21 @@
         </row>
         <row r="23">
           <cell r="C23" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
             <v/>
           </cell>
         </row>
@@ -500,7 +521,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +532,7 @@
       </c>
       <c r="D1">
         <f ca="1">IFERROR(D1+1,0)</f>
-        <v>935</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE([1]!D1CHARNAME,[1]Sheet1!$C$21)</f>
+        <f>CONCATENATE([1]!D1CHARNAME,[1]!D2CHARNAME,[1]!D3CHARNAME)</f>
         <v/>
       </c>
     </row>
@@ -556,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>CONCATENATE([1]!D1TEXT,[1]Sheet1!$C$22)</f>
+        <f>CONCATENATE([1]!D1TEXT,[1]!D2TEXT,[1]!D3TEXT)</f>
         <v/>
       </c>
     </row>
@@ -570,7 +591,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="D8:F12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE([1]!D1PROMPT,[1]Sheet1!$C$23)</f>
+        <f>CONCATENATE([1]!D1PROMPT,[1]!D2PROMPT,[1]!D3PROMPT)</f>
         <v/>
       </c>
     </row>

--- a/Excel RPG/Game/Display.xlsx
+++ b/Excel RPG/Game/Display.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D1">
         <f ca="1">IFERROR(D1+1,0)</f>
-        <v>3378</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel RPG/Game/Display.xlsx
+++ b/Excel RPG/Game/Display.xlsx
@@ -224,8 +224,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -532,7 +532,7 @@
       </c>
       <c r="D1">
         <f ca="1">IFERROR(D1+1,0)</f>
-        <v>3389</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>CONCATENATE(B5)</f>
+        <f ca="1">CONCATENATE(B5)</f>
         <v/>
       </c>
     </row>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE([1]!D1CHARNAME,[1]!D2CHARNAME,[1]!D3CHARNAME)</f>
+        <f ca="1">CONCATENATE([1]!D1CHARNAME,[1]!D2CHARNAME,[1]!D3CHARNAME)</f>
         <v/>
       </c>
     </row>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>CONCATENATE(B9)</f>
+        <f ca="1">CONCATENATE(B9)</f>
         <v/>
       </c>
     </row>
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>CONCATENATE([1]!D1TEXT,[1]!D2TEXT,[1]!D3TEXT)</f>
+        <f ca="1">CONCATENATE([1]!D1TEXT,[1]!D2TEXT,[1]!D3TEXT)</f>
         <v/>
       </c>
     </row>
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>CONCATENATE(B5)</f>
+        <f ca="1">CONCATENATE(B5)</f>
         <v/>
       </c>
     </row>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE([1]!D1PROMPT,[1]!D2PROMPT,[1]!D3PROMPT)</f>
+        <f ca="1">CONCATENATE([1]!D1PROMPT,[1]!D2PROMPT,[1]!D3PROMPT)</f>
         <v/>
       </c>
     </row>

--- a/Excel RPG/Game/Display.xlsx
+++ b/Excel RPG/Game/Display.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="6345" windowWidth="9915" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="9210" yWindow="6405" windowWidth="9915" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="OTHERBOX" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="OB1V2H">OTHERBOX!$B$8</definedName>
     <definedName name="UB1V1H">USERBOX!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>[OTHERBOX]</t>
   </si>
@@ -38,13 +38,19 @@
     <t>DISP</t>
   </si>
   <si>
-    <t>STORY</t>
-  </si>
-  <si>
     <t>{1V2H}</t>
   </si>
   <si>
     <t>[USERBOX]</t>
+  </si>
+  <si>
+    <t>STARTING DIALOGUE</t>
+  </si>
+  <si>
+    <t>{1V3H}</t>
+  </si>
+  <si>
+    <t>this is a bruh moment</t>
   </si>
 </sst>
 </file>
@@ -175,6 +181,9 @@
       <definedName name="D3CHARNAME" refersTo="='Sheet1'!$C$28"/>
       <definedName name="D3PROMPT" refersTo="='Sheet1'!$C$30"/>
       <definedName name="D3TEXT" refersTo="='Sheet1'!$C$29"/>
+      <definedName name="D4CHARNAME" refersTo="='Sheet1'!$C$58"/>
+      <definedName name="D4PROMPT" refersTo="='Sheet1'!$C$60"/>
+      <definedName name="D4TEXT" refersTo="='Sheet1'!$C$59"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -223,9 +232,34 @@
             <v/>
           </cell>
         </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v/>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -520,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +566,7 @@
       </c>
       <c r="D1">
         <f ca="1">IFERROR(D1+1,0)</f>
-        <v>3411</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f ca="1">CONCATENATE(B5)</f>
+        <f>CONCATENATE(B5)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f ca="1">CONCATENATE([1]!D1CHARNAME,[1]!D2CHARNAME,[1]!D3CHARNAME)</f>
+        <f>CONCATENATE([1]!D1CHARNAME,[1]!D2CHARNAME,[1]!D3CHARNAME,[1]!D4CHARNAME)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,16 +602,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f ca="1">CONCATENATE(B9)</f>
+        <f>CONCATENATE(B9)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f ca="1">CONCATENATE([1]!D1TEXT,[1]!D2TEXT,[1]!D3TEXT)</f>
+        <f>CONCATENATE([1]!D1TEXT,[1]!D2TEXT,[1]!D3TEXT,[1]!D4TEXT)</f>
         <v/>
       </c>
     </row>
@@ -588,39 +622,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f ca="1">CONCATENATE(B5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(B5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>CONCATENATE([1]!D1PROMPT,[1]!D2PROMPT,[1]!D3PROMPT,[1]!D4PROMPT)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f ca="1">CONCATENATE([1]!D1PROMPT,[1]!D2PROMPT,[1]!D3PROMPT)</f>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>CONCATENATE(B9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>CONCATENATE([1]Sheet1!$C$61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>CONCATENATE(B13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>CONCATENATE([1]Sheet1!$C$63)</f>
         <v/>
       </c>
     </row>
